--- a/templates/Excel/POKA-YOKE.xlsx
+++ b/templates/Excel/POKA-YOKE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prettlcloud-my.sharepoint.com/personal/suriya_prakash_prettl_com/Documents/Desktop/AHP_STATION-1/AHP-STATION-1/AHP-Station1/templates/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD310D020C4E6C871443088B35299F01F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C256ED4-AF50-413E-8598-8C493682B55D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD310D020C4E6C871443088B35299F01F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286E6E23-8E94-4A50-849A-C5EF91F8F44A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,71 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B1</t>
-  </si>
-  <si>
-    <t>1B2</t>
-  </si>
-  <si>
-    <t>1C1</t>
-  </si>
-  <si>
-    <t>1C2</t>
-  </si>
-  <si>
-    <t>1C3</t>
-  </si>
-  <si>
-    <t>1D1</t>
-  </si>
-  <si>
-    <t>1D2</t>
-  </si>
-  <si>
-    <t>1D3</t>
-  </si>
-  <si>
-    <t>1A-1D</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>qa-sign</t>
-  </si>
-  <si>
-    <t>eng-sign</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>SHIFT3</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>QA1</t>
-  </si>
-  <si>
-    <t>QA2</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -158,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,98 +397,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
